--- a/DbLayouts/L2-業務作業/FacProd.xlsx
+++ b/DbLayouts/L2-業務作業/FacProd.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E0DD94-95CA-45B1-AEB7-4F0ADDDDE6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="10068"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
   <si>
     <t>備註說明</t>
   </si>
@@ -455,11 +456,35 @@
     <t>StartDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>EnterpriseFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fildentCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterpriseFg ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企金可使用記號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fildProdNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo % ,AND StatusCode ^i ,AND EnterpriseFg ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -798,7 +823,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -889,6 +914,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -924,6 +966,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1099,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1341,74 +1400,73 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
+      <c r="B15" s="38" t="s">
+        <v>106</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>54</v>
@@ -1421,65 +1479,66 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>11</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>22</v>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="B20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>13</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="22">
         <v>1</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>23</v>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1487,10 +1546,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>49</v>
@@ -1507,13 +1566,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -1522,18 +1581,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -1542,103 +1601,104 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>19</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="28">
-        <v>3</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="B27" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="25">
-        <v>5</v>
-      </c>
-      <c r="F28" s="25">
-        <v>2</v>
-      </c>
-      <c r="G28" s="31"/>
+      <c r="E28" s="28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E29" s="25">
-        <v>3</v>
-      </c>
-      <c r="F29" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="25">
+        <v>2</v>
+      </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1646,20 +1706,18 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="25">
-        <v>5</v>
-      </c>
-      <c r="F30" s="25">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1667,95 +1725,98 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>71</v>
       </c>
       <c r="E31" s="25">
-        <v>3</v>
-      </c>
-      <c r="F31" s="25"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="25">
+        <v>2</v>
+      </c>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7" s="37" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>24</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="25">
+        <v>3</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7" s="37" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>25</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>26</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="3">
-        <v>8</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="32">
+        <v>2</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -1764,36 +1825,54 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="3">
+        <v>8</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>30</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E38" s="3">
         <v>6</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1812,12 +1891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1861,6 +1940,28 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DbLayouts/L2-業務作業/FacProd.xlsx
+++ b/DbLayouts/L2-業務作業/FacProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E0DD94-95CA-45B1-AEB7-4F0ADDDDE6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6109F-35AD-455C-9E73-944AB3FA9A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProdNo % ,AND StatusCode ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>限制清償期限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,7 +473,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ProdNo % ,AND StatusCode ^i ,AND EnterpriseFg ^i</t>
+    <t>ProdNo % ,AND StatusCode ^i ,AND EnterpriseFg ^i ,AND GovOfferFlag ^i ,AND FinancialFlag ^i ,AND EmpFlag ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo % ,AND StatusCode ^i ,AND GovOfferFlag ^i ,AND FinancialFlag ^i ,AND EmpFlag ^i</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1327,10 +1327,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>63</v>
@@ -1368,7 +1368,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1385,10 +1385,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>49</v>
@@ -1405,10 +1405,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>49</v>
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>71</v>
@@ -1765,10 +1765,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>49</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -1786,10 +1786,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>49</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,7 +1896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1926,7 +1926,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1934,32 +1934,32 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C4" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>111</v>
-      </c>
       <c r="C5" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
